--- a/root/datas/routes.php.xlsx
+++ b/root/datas/routes.php.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="503">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2101,10 +2101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>account.detail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>address.view</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2172,6 +2168,14 @@
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account.list</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2602,6 +2606,9 @@
     <xf numFmtId="185" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2609,9 +2616,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6150,10 +6154,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2"/>
@@ -6270,10 +6274,10 @@
   <dimension ref="A1:Q191"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -6302,13 +6306,13 @@
         <v>16</v>
       </c>
       <c r="C1" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="E1" s="34" t="s">
         <v>500</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>501</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>1</v>
@@ -6337,10 +6341,10 @@
       <c r="N1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="46"/>
+      <c r="P1" s="47"/>
       <c r="Q1" s="12" t="s">
         <v>12</v>
       </c>
@@ -6923,7 +6927,7 @@
         <v>471</v>
       </c>
       <c r="O22" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="P22" s="11"/>
       <c r="Q22" s="24"/>
@@ -6967,7 +6971,7 @@
       <c r="O23" s="43"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="22.5" customHeight="1">
@@ -7021,10 +7025,10 @@
         <v>476</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="O25" s="43" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="24"/>
@@ -7066,7 +7070,7 @@
         <v>462</v>
       </c>
       <c r="O26" s="43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="P26" s="11"/>
       <c r="Q26" s="24"/>
@@ -7110,7 +7114,7 @@
       <c r="O27" s="43"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="22.5" customHeight="1">
@@ -7150,7 +7154,7 @@
         <v>464</v>
       </c>
       <c r="O28" s="43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P28" s="11"/>
       <c r="Q28" s="24"/>
@@ -7209,7 +7213,7 @@
         <v>479</v>
       </c>
       <c r="O30" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P30" s="11"/>
       <c r="Q30" s="24"/>
@@ -7251,7 +7255,7 @@
         <v>462</v>
       </c>
       <c r="O31" s="43" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P31" s="11"/>
       <c r="Q31" s="24"/>
@@ -7295,7 +7299,7 @@
       <c r="O32" s="43"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="22.5" customHeight="1">
@@ -7339,7 +7343,7 @@
       <c r="O33" s="43"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="22.5" customHeight="1">
@@ -7398,7 +7402,7 @@
         <v>482</v>
       </c>
       <c r="O35" s="43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P35" s="11"/>
       <c r="Q35" s="24"/>
@@ -7444,7 +7448,7 @@
         <v>481</v>
       </c>
       <c r="O36" s="43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P36" s="11"/>
       <c r="Q36" s="24"/>
@@ -9072,7 +9076,7 @@
         <v>31</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>113</v>
@@ -9122,7 +9126,7 @@
         <v>32</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>113</v>
@@ -9172,7 +9176,7 @@
         <v>33</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>113</v>

--- a/root/datas/routes.php.xlsx
+++ b/root/datas/routes.php.xlsx
@@ -996,10 +996,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>showStatus</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mypage/account</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2683,6 +2679,10 @@
   </si>
   <si>
     <t>confirm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9445,7 +9445,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9937,11 +9937,11 @@
   </sheetPr>
   <dimension ref="A1:S269"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H230" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L246" sqref="L246"/>
+      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -9968,22 +9968,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>412</v>
-      </c>
       <c r="E1" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>204</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>205</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>1</v>
@@ -10025,10 +10025,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>517</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>518</v>
       </c>
       <c r="D2" s="36">
         <v>0</v>
@@ -10063,7 +10063,7 @@
         <v>114</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S2" s="24"/>
     </row>
@@ -10073,10 +10073,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D3" s="36">
         <v>10</v>
@@ -10086,7 +10086,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>115</v>
@@ -10103,13 +10103,13 @@
         <v>162</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q3" s="30" t="s">
         <v>114</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S3" s="24"/>
     </row>
@@ -10119,10 +10119,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D4" s="36">
         <v>20</v>
@@ -10131,19 +10131,19 @@
         <v>112</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>115</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -10155,13 +10155,13 @@
         <v>162</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="30" t="s">
         <v>114</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S4" s="24"/>
     </row>
@@ -10170,10 +10170,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D5" s="36">
         <v>21</v>
@@ -10194,7 +10194,7 @@
         <v>114</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S5" s="24"/>
     </row>
@@ -10203,10 +10203,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D6" s="36">
         <v>22</v>
@@ -10224,10 +10224,10 @@
       <c r="O6" s="9"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>276</v>
       </c>
       <c r="S6" s="24"/>
     </row>
@@ -10244,13 +10244,13 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>115</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -10263,12 +10263,12 @@
         <v>163</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="11"/>
       <c r="S7" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="22.5" customHeight="1">
@@ -10277,10 +10277,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D8" s="36">
         <v>40</v>
@@ -10289,19 +10289,19 @@
         <v>112</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>115</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -10313,13 +10313,13 @@
         <v>163</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="30" t="s">
         <v>114</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S8" s="24"/>
     </row>
@@ -10336,13 +10336,13 @@
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>115</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -10355,12 +10355,12 @@
         <v>163</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="11"/>
       <c r="S9" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="22.5" customHeight="1">
@@ -10369,10 +10369,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D10" s="36">
         <v>60</v>
@@ -10381,7 +10381,7 @@
         <v>112</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>13</v>
@@ -10390,10 +10390,10 @@
         <v>115</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -10405,13 +10405,13 @@
         <v>163</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="30" t="s">
         <v>114</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S10" s="24"/>
     </row>
@@ -10421,10 +10421,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D11" s="36">
         <v>70</v>
@@ -10433,7 +10433,7 @@
         <v>112</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>13</v>
@@ -10442,10 +10442,10 @@
         <v>115</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -10457,13 +10457,13 @@
         <v>163</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="30" t="s">
         <v>114</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S11" s="24"/>
     </row>
@@ -10489,7 +10489,7 @@
       <c r="Q12" s="30"/>
       <c r="R12" s="11"/>
       <c r="S12" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="22.5" customHeight="1">
@@ -10519,19 +10519,19 @@
         <v>9</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D14" s="36">
         <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
@@ -10544,10 +10544,10 @@
         <v>1</v>
       </c>
       <c r="O14" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="P14" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>285</v>
       </c>
       <c r="Q14" s="30"/>
       <c r="R14" s="11"/>
@@ -10559,19 +10559,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D15" s="36">
         <v>20</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
@@ -10584,10 +10584,10 @@
         <v>1</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q15" s="30"/>
       <c r="R15" s="11"/>
@@ -10599,19 +10599,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D16" s="36">
         <v>30</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
@@ -10624,10 +10624,10 @@
         <v>1</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="30"/>
       <c r="R16" s="11"/>
@@ -10660,10 +10660,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D18" s="36">
         <v>80</v>
@@ -10672,7 +10672,7 @@
         <v>112</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>13</v>
@@ -10681,10 +10681,10 @@
         <v>115</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -10696,13 +10696,13 @@
         <v>163</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q18" s="30" t="s">
         <v>114</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S18" s="24"/>
     </row>
@@ -10733,10 +10733,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D20" s="36">
         <v>0</v>
@@ -10798,10 +10798,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D22" s="36">
         <v>0</v>
@@ -10816,10 +10816,10 @@
         <v>180</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -10829,16 +10829,16 @@
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="R22" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q22" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="R22" s="11" t="s">
-        <v>291</v>
       </c>
       <c r="S22" s="24"/>
     </row>
@@ -10847,10 +10847,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D23" s="36">
         <v>1</v>
@@ -10868,10 +10868,10 @@
       <c r="O23" s="9"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="R23" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>276</v>
       </c>
       <c r="S23" s="24"/>
     </row>
@@ -10922,10 +10922,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D26" s="36">
         <v>0</v>
@@ -10955,10 +10955,10 @@
         <v>18</v>
       </c>
       <c r="Q26" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S26" s="24"/>
     </row>
@@ -10968,10 +10968,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D27" s="36">
         <v>0</v>
@@ -11003,10 +11003,10 @@
         <v>183</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S27" s="24"/>
     </row>
@@ -11037,10 +11037,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D29" s="36">
         <v>0</v>
@@ -11069,13 +11069,13 @@
         <v>194</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>200</v>
+        <v>553</v>
       </c>
       <c r="Q29" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S29" s="24"/>
     </row>
@@ -11106,10 +11106,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D31" s="36">
         <v>10</v>
@@ -11138,13 +11138,13 @@
         <v>195</v>
       </c>
       <c r="P31" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q31" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="Q31" s="33" t="s">
+      <c r="R31" s="11" t="s">
         <v>294</v>
-      </c>
-      <c r="R31" s="11" t="s">
-        <v>295</v>
       </c>
       <c r="S31" s="24"/>
     </row>
@@ -11154,10 +11154,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D32" s="36">
         <v>20</v>
@@ -11191,10 +11191,10 @@
         <v>186</v>
       </c>
       <c r="Q32" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S32" s="24"/>
     </row>
@@ -11237,7 +11237,7 @@
       <c r="Q33" s="33"/>
       <c r="R33" s="11"/>
       <c r="S33" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="22.5" customHeight="1">
@@ -11246,10 +11246,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D34" s="36">
         <v>50</v>
@@ -11283,10 +11283,10 @@
         <v>116</v>
       </c>
       <c r="Q34" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S34" s="24"/>
     </row>
@@ -11296,10 +11296,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D35" s="36">
         <v>60</v>
@@ -11330,13 +11330,13 @@
         <v>195</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q35" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S35" s="24"/>
     </row>
@@ -11367,10 +11367,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D37" s="36">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>174</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>171</v>
@@ -11404,10 +11404,10 @@
         <v>38</v>
       </c>
       <c r="Q37" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="R37" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="R37" s="11" t="s">
-        <v>304</v>
       </c>
       <c r="S37" s="24"/>
     </row>
@@ -11417,10 +11417,10 @@
         <v>10</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D38" s="36">
         <v>10</v>
@@ -11429,7 +11429,7 @@
         <v>174</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>13</v>
@@ -11458,10 +11458,10 @@
         <v>47</v>
       </c>
       <c r="Q38" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S38" s="24"/>
     </row>
@@ -11471,10 +11471,10 @@
         <v>11</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D39" s="36">
         <v>20</v>
@@ -11484,7 +11484,7 @@
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>182</v>
@@ -11508,10 +11508,10 @@
         <v>15</v>
       </c>
       <c r="Q39" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S39" s="24"/>
     </row>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>182</v>
@@ -11554,7 +11554,7 @@
       <c r="Q40" s="33"/>
       <c r="R40" s="11"/>
       <c r="S40" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="22.5" customHeight="1">
@@ -11563,10 +11563,10 @@
         <v>13</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D41" s="36">
         <v>50</v>
@@ -11588,7 +11588,7 @@
         <v>191</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L41" s="7"/>
       <c r="M41" s="8">
@@ -11602,10 +11602,10 @@
         <v>186</v>
       </c>
       <c r="Q41" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S41" s="24"/>
     </row>
@@ -11648,7 +11648,7 @@
       <c r="Q42" s="33"/>
       <c r="R42" s="11"/>
       <c r="S42" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="22.5" customHeight="1">
@@ -11657,10 +11657,10 @@
         <v>15</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D43" s="36">
         <v>80</v>
@@ -11698,7 +11698,7 @@
       <c r="Q43" s="33"/>
       <c r="R43" s="11"/>
       <c r="S43" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="22.5" customHeight="1">
@@ -11728,31 +11728,31 @@
         <v>16</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D45" s="36">
         <v>10</v>
       </c>
       <c r="E45" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>182</v>
       </c>
       <c r="I45" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -11761,16 +11761,16 @@
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="P45" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="P45" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="Q45" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S45" s="24"/>
     </row>
@@ -11780,34 +11780,34 @@
         <v>17</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D46" s="36">
         <v>20</v>
       </c>
       <c r="E46" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="G46" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>182</v>
       </c>
       <c r="I46" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="J46" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="J46" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="K46" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L46" s="7"/>
       <c r="M46" s="8"/>
@@ -11815,16 +11815,16 @@
         <v>1</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q46" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S46" s="24"/>
     </row>
@@ -11837,25 +11837,25 @@
       <c r="C47" s="35"/>
       <c r="D47" s="36"/>
       <c r="E47" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="G47" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>182</v>
       </c>
       <c r="I47" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="J47" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="J47" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="K47" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L47" s="7"/>
       <c r="M47" s="8"/>
@@ -11863,15 +11863,15 @@
         <v>1</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P47" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q47" s="33"/>
       <c r="R47" s="11"/>
       <c r="S47" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="22.5" customHeight="1">
@@ -11880,31 +11880,31 @@
         <v>19</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D48" s="36">
         <v>40</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>182</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
@@ -11913,16 +11913,16 @@
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q48" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R48" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S48" s="24"/>
     </row>
@@ -11932,34 +11932,34 @@
         <v>20</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D49" s="36">
         <v>50</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>182</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L49" s="7"/>
       <c r="M49" s="8"/>
@@ -11967,16 +11967,16 @@
         <v>1</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q49" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S49" s="24"/>
     </row>
@@ -11989,25 +11989,25 @@
       <c r="C50" s="35"/>
       <c r="D50" s="36"/>
       <c r="E50" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>182</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="8"/>
@@ -12015,15 +12015,15 @@
         <v>1</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q50" s="33"/>
       <c r="R50" s="11"/>
       <c r="S50" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="22.5" customHeight="1">
@@ -12053,16 +12053,16 @@
         <v>22</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D52" s="36">
         <v>0</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>175</v>
@@ -12090,10 +12090,10 @@
         <v>199</v>
       </c>
       <c r="Q52" s="33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R52" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S52" s="24"/>
     </row>
@@ -12103,16 +12103,16 @@
         <v>23</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D53" s="36">
         <v>10</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>176</v>
@@ -12142,10 +12142,10 @@
         <v>198</v>
       </c>
       <c r="Q53" s="33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R53" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S53" s="24"/>
     </row>
@@ -12176,16 +12176,16 @@
         <v>24</v>
       </c>
       <c r="B55" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="C55" s="35" t="s">
         <v>523</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>524</v>
       </c>
       <c r="D55" s="36">
         <v>10</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6" t="s">
@@ -12195,13 +12195,13 @@
         <v>182</v>
       </c>
       <c r="I55" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="L55" s="7"/>
       <c r="M55" s="8">
@@ -12209,16 +12209,16 @@
       </c>
       <c r="N55" s="8"/>
       <c r="O55" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P55" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q55" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="Q55" s="33" t="s">
-        <v>319</v>
-      </c>
       <c r="R55" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S55" s="24"/>
     </row>
@@ -12312,16 +12312,16 @@
         <v>1</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D60" s="36">
         <v>0</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6" t="s">
@@ -12339,16 +12339,16 @@
       </c>
       <c r="N60" s="8"/>
       <c r="O60" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P60" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q60" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R60" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S60" s="24"/>
     </row>
@@ -12358,16 +12358,16 @@
         <v>2</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D61" s="36">
         <v>0</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6" t="s">
@@ -12377,7 +12377,7 @@
         <v>84</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
@@ -12387,16 +12387,16 @@
       </c>
       <c r="N61" s="8"/>
       <c r="O61" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P61" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q61" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R61" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S61" s="24"/>
     </row>
@@ -12427,10 +12427,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="C63" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="D63" s="36">
         <v>20</v>
@@ -12477,10 +12477,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="C64" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="D64" s="36">
         <v>30</v>
@@ -12499,7 +12499,7 @@
         <v>126</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -12511,13 +12511,13 @@
         <v>134</v>
       </c>
       <c r="P64" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q64" s="27" t="s">
         <v>97</v>
       </c>
       <c r="R64" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S64" s="24"/>
     </row>
@@ -12569,10 +12569,10 @@
         <v>6</v>
       </c>
       <c r="B66" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="C66" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="D66" s="36">
         <v>50</v>
@@ -12621,10 +12621,10 @@
         <v>7</v>
       </c>
       <c r="B67" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="C67" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="D67" s="36">
         <v>60</v>
@@ -12646,7 +12646,7 @@
         <v>127</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L67" s="7"/>
       <c r="M67" s="8"/>
@@ -12657,13 +12657,13 @@
         <v>134</v>
       </c>
       <c r="P67" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q67" s="27" t="s">
         <v>97</v>
       </c>
       <c r="R67" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S67" s="24"/>
     </row>
@@ -12778,7 +12778,7 @@
         <v>127</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L70" s="7"/>
       <c r="M70" s="8">
@@ -12789,7 +12789,7 @@
         <v>134</v>
       </c>
       <c r="P70" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q70" s="27"/>
       <c r="R70" s="11"/>
@@ -12824,16 +12824,16 @@
         <v>11</v>
       </c>
       <c r="B72" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="C72" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="D72" s="36">
         <v>0</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>9</v>
@@ -12845,7 +12845,7 @@
         <v>84</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -12855,13 +12855,13 @@
       </c>
       <c r="N72" s="8"/>
       <c r="O72" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P72" s="10" t="s">
         <v>38</v>
       </c>
       <c r="Q72" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R72" s="11" t="s">
         <v>25</v>
@@ -12874,16 +12874,16 @@
         <v>12</v>
       </c>
       <c r="B73" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="C73" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="D73" s="36">
         <v>10</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>50</v>
@@ -12895,7 +12895,7 @@
         <v>84</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>98</v>
@@ -12909,13 +12909,13 @@
       </c>
       <c r="N73" s="8"/>
       <c r="O73" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P73" s="10" t="s">
         <v>47</v>
       </c>
       <c r="Q73" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R73" s="11" t="s">
         <v>14</v>
@@ -12928,16 +12928,16 @@
         <v>13</v>
       </c>
       <c r="B74" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="C74" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="D74" s="36">
         <v>1</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>9</v>
@@ -12949,7 +12949,7 @@
         <v>84</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -12959,13 +12959,13 @@
       </c>
       <c r="N74" s="8"/>
       <c r="O74" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P74" s="10" t="s">
         <v>38</v>
       </c>
       <c r="Q74" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R74" s="11" t="s">
         <v>25</v>
@@ -12978,16 +12978,16 @@
         <v>14</v>
       </c>
       <c r="B75" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="C75" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="C75" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="D75" s="36">
         <v>11</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>50</v>
@@ -12999,7 +12999,7 @@
         <v>84</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>98</v>
@@ -13013,13 +13013,13 @@
       </c>
       <c r="N75" s="8"/>
       <c r="O75" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P75" s="10" t="s">
         <v>47</v>
       </c>
       <c r="Q75" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R75" s="11" t="s">
         <v>14</v>
@@ -13032,16 +13032,16 @@
         <v>15</v>
       </c>
       <c r="B76" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="C76" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="D76" s="36">
         <v>2</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>9</v>
@@ -13053,7 +13053,7 @@
         <v>84</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
@@ -13063,13 +13063,13 @@
       </c>
       <c r="N76" s="8"/>
       <c r="O76" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P76" s="10" t="s">
         <v>136</v>
       </c>
       <c r="Q76" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R76" s="11" t="s">
         <v>25</v>
@@ -13082,16 +13082,16 @@
         <v>16</v>
       </c>
       <c r="B77" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="C77" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="D77" s="36">
         <v>12</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>50</v>
@@ -13103,7 +13103,7 @@
         <v>84</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>127</v>
@@ -13117,13 +13117,13 @@
       </c>
       <c r="N77" s="8"/>
       <c r="O77" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P77" s="10" t="s">
         <v>137</v>
       </c>
       <c r="Q77" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R77" s="11" t="s">
         <v>14</v>
@@ -13157,10 +13157,10 @@
         <v>17</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C79" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D79" s="36">
         <v>20</v>
@@ -13190,7 +13190,7 @@
       </c>
       <c r="N79" s="8"/>
       <c r="O79" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P79" s="10" t="s">
         <v>138</v>
@@ -13209,10 +13209,10 @@
         <v>18</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D80" s="36">
         <v>30</v>
@@ -13233,7 +13233,7 @@
         <v>129</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
@@ -13242,7 +13242,7 @@
         <v>1</v>
       </c>
       <c r="O80" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P80" s="10" t="s">
         <v>143</v>
@@ -13251,7 +13251,7 @@
         <v>129</v>
       </c>
       <c r="R80" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S80" s="24"/>
     </row>
@@ -13279,7 +13279,7 @@
         <v>129</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
@@ -13288,7 +13288,7 @@
         <v>1</v>
       </c>
       <c r="O81" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P81" s="10" t="s">
         <v>142</v>
@@ -13296,7 +13296,7 @@
       <c r="Q81" s="27"/>
       <c r="R81" s="11"/>
       <c r="S81" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="22.5" customHeight="1">
@@ -13334,7 +13334,7 @@
       </c>
       <c r="N82" s="8"/>
       <c r="O82" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P82" s="10" t="s">
         <v>128</v>
@@ -13342,7 +13342,7 @@
       <c r="Q82" s="27"/>
       <c r="R82" s="11"/>
       <c r="S82" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="22.5" customHeight="1">
@@ -13372,16 +13372,16 @@
         <v>21</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D84" s="36">
         <v>0</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>9</v>
@@ -13399,7 +13399,7 @@
         <v>144</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L84" s="7"/>
       <c r="M84" s="8">
@@ -13407,16 +13407,16 @@
       </c>
       <c r="N84" s="8"/>
       <c r="O84" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P84" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q84" s="27" t="s">
         <v>89</v>
       </c>
       <c r="R84" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S84" s="24"/>
     </row>
@@ -13426,16 +13426,16 @@
         <v>22</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C85" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D85" s="36">
         <v>10</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>50</v>
@@ -13461,7 +13461,7 @@
       </c>
       <c r="N85" s="8"/>
       <c r="O85" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P85" s="10" t="s">
         <v>137</v>
@@ -13501,10 +13501,10 @@
         <v>23</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D87" s="36">
         <v>20</v>
@@ -13526,7 +13526,7 @@
         <v>94</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L87" s="7"/>
       <c r="M87" s="8">
@@ -13534,16 +13534,16 @@
       </c>
       <c r="N87" s="8"/>
       <c r="O87" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P87" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q87" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R87" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S87" s="24"/>
     </row>
@@ -13553,10 +13553,10 @@
         <v>24</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C88" s="35" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D88" s="36">
         <v>30</v>
@@ -13575,7 +13575,7 @@
         <v>132</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
@@ -13584,16 +13584,16 @@
         <v>1</v>
       </c>
       <c r="O88" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P88" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q88" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R88" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S88" s="24"/>
     </row>
@@ -13619,7 +13619,7 @@
         <v>132</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
@@ -13628,15 +13628,15 @@
         <v>1</v>
       </c>
       <c r="O89" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P89" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q89" s="27"/>
       <c r="R89" s="11"/>
       <c r="S89" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="22.5" customHeight="1">
@@ -13691,10 +13691,10 @@
       </c>
       <c r="N91" s="8"/>
       <c r="O91" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P91" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q91" s="27"/>
       <c r="R91" s="11"/>
@@ -13727,10 +13727,10 @@
         <v>27</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C93" s="35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D93" s="36">
         <v>20</v>
@@ -13752,7 +13752,7 @@
         <v>98</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L93" s="7"/>
       <c r="M93" s="8">
@@ -13760,13 +13760,13 @@
       </c>
       <c r="N93" s="8"/>
       <c r="O93" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="P93" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q93" s="27" t="s">
         <v>346</v>
-      </c>
-      <c r="P93" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q93" s="27" t="s">
-        <v>347</v>
       </c>
       <c r="R93" s="11" t="s">
         <v>146</v>
@@ -13779,10 +13779,10 @@
         <v>28</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C94" s="35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D94" s="36">
         <v>30</v>
@@ -13801,7 +13801,7 @@
         <v>133</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
@@ -13810,16 +13810,16 @@
         <v>1</v>
       </c>
       <c r="O94" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="P94" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q94" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="P94" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q94" s="27" t="s">
-        <v>347</v>
-      </c>
       <c r="R94" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S94" s="24"/>
     </row>
@@ -13845,7 +13845,7 @@
         <v>133</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
@@ -13854,15 +13854,15 @@
         <v>1</v>
       </c>
       <c r="O95" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P95" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q95" s="27"/>
       <c r="R95" s="11"/>
       <c r="S95" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="22.5" customHeight="1">
@@ -13892,10 +13892,10 @@
         <v>30</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C97" s="35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D97" s="36">
         <v>20</v>
@@ -13925,13 +13925,13 @@
       </c>
       <c r="N97" s="8"/>
       <c r="O97" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P97" s="10" t="s">
         <v>15</v>
       </c>
       <c r="Q97" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R97" s="11" t="s">
         <v>15</v>
@@ -13944,10 +13944,10 @@
         <v>31</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D98" s="36">
         <v>30</v>
@@ -13966,7 +13966,7 @@
         <v>101</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
@@ -13975,16 +13975,16 @@
         <v>1</v>
       </c>
       <c r="O98" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P98" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q98" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R98" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S98" s="24"/>
     </row>
@@ -14010,7 +14010,7 @@
         <v>107</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
@@ -14019,15 +14019,15 @@
         <v>1</v>
       </c>
       <c r="O99" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P99" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q99" s="27"/>
       <c r="R99" s="11"/>
       <c r="S99" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="22.5" customHeight="1">
@@ -14057,10 +14057,10 @@
         <v>33</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D101" s="36">
         <v>10</v>
@@ -14079,10 +14079,10 @@
         <v>34</v>
       </c>
       <c r="J101" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K101" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="L101" s="7"/>
       <c r="M101" s="8">
@@ -14093,13 +14093,13 @@
         <v>83</v>
       </c>
       <c r="P101" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q101" s="27" t="s">
         <v>34</v>
       </c>
       <c r="R101" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S101" s="24"/>
     </row>
@@ -14109,10 +14109,10 @@
         <v>34</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D102" s="36">
         <v>11</v>
@@ -14131,10 +14131,10 @@
         <v>34</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L102" s="7"/>
       <c r="M102" s="8">
@@ -14145,13 +14145,13 @@
         <v>83</v>
       </c>
       <c r="P102" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q102" s="27" t="s">
         <v>34</v>
       </c>
       <c r="R102" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S102" s="24"/>
     </row>
@@ -14182,16 +14182,16 @@
         <v>35</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D104" s="36">
         <v>20</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>50</v>
@@ -14203,7 +14203,7 @@
         <v>84</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J104" s="7" t="s">
         <v>109</v>
@@ -14215,13 +14215,13 @@
       </c>
       <c r="N104" s="8"/>
       <c r="O104" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P104" s="10" t="s">
         <v>164</v>
       </c>
       <c r="Q104" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R104" s="11" t="s">
         <v>165</v>
@@ -14234,16 +14234,16 @@
         <v>36</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C105" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D105" s="36">
         <v>30</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6" t="s">
@@ -14253,7 +14253,7 @@
         <v>84</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J105" s="7" t="s">
         <v>108</v>
@@ -14265,16 +14265,16 @@
       </c>
       <c r="N105" s="8"/>
       <c r="O105" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="P105" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="P105" s="10" t="s">
-        <v>353</v>
-      </c>
       <c r="Q105" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R105" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S105" s="24"/>
     </row>
@@ -14287,7 +14287,7 @@
       <c r="C106" s="35"/>
       <c r="D106" s="36"/>
       <c r="E106" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="6" t="s">
@@ -14297,7 +14297,7 @@
         <v>84</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J106" s="7" t="s">
         <v>17</v>
@@ -14309,15 +14309,15 @@
         <v>1</v>
       </c>
       <c r="O106" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P106" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q106" s="27"/>
       <c r="R106" s="11"/>
       <c r="S106" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:19" ht="22.5" customHeight="1">
@@ -14346,16 +14346,16 @@
         <v>1</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D108" s="36">
         <v>0</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6" t="s">
@@ -14373,16 +14373,16 @@
       </c>
       <c r="N108" s="8"/>
       <c r="O108" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P108" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q108" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R108" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S108" s="24"/>
     </row>
@@ -14392,16 +14392,16 @@
         <v>2</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C109" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D109" s="36">
         <v>0</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="6" t="s">
@@ -14411,7 +14411,7 @@
         <v>79</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
@@ -14421,16 +14421,16 @@
       </c>
       <c r="N109" s="8"/>
       <c r="O109" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P109" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q109" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R109" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S109" s="24"/>
     </row>
@@ -14461,10 +14461,10 @@
         <v>3</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D111" s="36">
         <v>0</v>
@@ -14511,10 +14511,10 @@
         <v>4</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C112" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D112" s="36">
         <v>10</v>
@@ -14535,7 +14535,7 @@
         <v>104</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K112" s="7" t="s">
         <v>14</v>
@@ -14586,10 +14586,10 @@
         <v>5</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D114" s="36">
         <v>0</v>
@@ -14598,7 +14598,7 @@
         <v>124</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>9</v>
@@ -14617,16 +14617,16 @@
       </c>
       <c r="N114" s="8"/>
       <c r="O114" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P114" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q114" s="28" t="s">
         <v>89</v>
       </c>
       <c r="R114" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S114" s="24"/>
     </row>
@@ -14636,10 +14636,10 @@
         <v>6</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D115" s="36">
         <v>1</v>
@@ -14648,7 +14648,7 @@
         <v>124</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>9</v>
@@ -14663,7 +14663,7 @@
         <v>98</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L115" s="7"/>
       <c r="M115" s="8">
@@ -14671,16 +14671,16 @@
       </c>
       <c r="N115" s="8"/>
       <c r="O115" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P115" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q115" s="28" t="s">
         <v>89</v>
       </c>
       <c r="R115" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S115" s="24"/>
     </row>
@@ -14690,10 +14690,10 @@
         <v>7</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C116" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D116" s="36">
         <v>10</v>
@@ -14702,7 +14702,7 @@
         <v>124</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>13</v>
@@ -14714,10 +14714,10 @@
         <v>135</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L116" s="7"/>
       <c r="M116" s="8">
@@ -14725,16 +14725,16 @@
       </c>
       <c r="N116" s="8"/>
       <c r="O116" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P116" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q116" s="28" t="s">
         <v>89</v>
       </c>
       <c r="R116" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S116" s="24"/>
     </row>
@@ -14744,10 +14744,10 @@
         <v>8</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D117" s="36">
         <v>20</v>
@@ -14777,7 +14777,7 @@
       </c>
       <c r="N117" s="8"/>
       <c r="O117" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P117" s="10" t="s">
         <v>15</v>
@@ -14796,10 +14796,10 @@
         <v>9</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C118" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D118" s="36">
         <v>30</v>
@@ -14818,7 +14818,7 @@
         <v>135</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
@@ -14827,16 +14827,16 @@
         <v>1</v>
       </c>
       <c r="O118" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P118" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q118" s="28" t="s">
         <v>89</v>
       </c>
       <c r="R118" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S118" s="24"/>
     </row>
@@ -14871,7 +14871,7 @@
         <v>1</v>
       </c>
       <c r="O119" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P119" s="10" t="s">
         <v>41</v>
@@ -14879,7 +14879,7 @@
       <c r="Q119" s="28"/>
       <c r="R119" s="11"/>
       <c r="S119" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="22.5" customHeight="1">
@@ -14888,10 +14888,10 @@
         <v>11</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D120" s="36">
         <v>50</v>
@@ -14921,7 +14921,7 @@
       </c>
       <c r="N120" s="8"/>
       <c r="O120" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P120" s="10" t="s">
         <v>7</v>
@@ -14940,10 +14940,10 @@
         <v>12</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D121" s="36">
         <v>60</v>
@@ -14953,7 +14953,7 @@
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>79</v>
@@ -14965,7 +14965,7 @@
         <v>94</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L121" s="7"/>
       <c r="M121" s="8"/>
@@ -14973,16 +14973,16 @@
         <v>1</v>
       </c>
       <c r="O121" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P121" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q121" s="28" t="s">
         <v>89</v>
       </c>
       <c r="R121" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S121" s="24"/>
     </row>
@@ -15017,7 +15017,7 @@
         <v>1</v>
       </c>
       <c r="O122" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P122" s="10" t="s">
         <v>17</v>
@@ -15025,7 +15025,7 @@
       <c r="Q122" s="28"/>
       <c r="R122" s="11"/>
       <c r="S122" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="123" spans="1:19" ht="22.5" customHeight="1">
@@ -15061,7 +15061,7 @@
       </c>
       <c r="N123" s="8"/>
       <c r="O123" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P123" s="10" t="s">
         <v>10</v>
@@ -15069,7 +15069,7 @@
       <c r="Q123" s="28"/>
       <c r="R123" s="11"/>
       <c r="S123" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="22.5" customHeight="1">
@@ -15097,7 +15097,7 @@
         <v>94</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L124" s="7"/>
       <c r="M124" s="8">
@@ -15105,15 +15105,15 @@
       </c>
       <c r="N124" s="8"/>
       <c r="O124" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P124" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q124" s="28"/>
       <c r="R124" s="11"/>
       <c r="S124" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:19" ht="22.5" customHeight="1">
@@ -15143,10 +15143,10 @@
         <v>16</v>
       </c>
       <c r="B126" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="C126" s="35" t="s">
         <v>538</v>
-      </c>
-      <c r="C126" s="35" t="s">
-        <v>539</v>
       </c>
       <c r="D126" s="36">
         <v>0</v>
@@ -15193,10 +15193,10 @@
         <v>17</v>
       </c>
       <c r="B127" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="C127" s="35" t="s">
         <v>538</v>
-      </c>
-      <c r="C127" s="35" t="s">
-        <v>539</v>
       </c>
       <c r="D127" s="36">
         <v>10</v>
@@ -15247,10 +15247,10 @@
         <v>18</v>
       </c>
       <c r="B128" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="C128" s="35" t="s">
         <v>538</v>
-      </c>
-      <c r="C128" s="35" t="s">
-        <v>539</v>
       </c>
       <c r="D128" s="36">
         <v>20</v>
@@ -15339,10 +15339,10 @@
         <v>20</v>
       </c>
       <c r="B130" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="C130" s="35" t="s">
         <v>538</v>
-      </c>
-      <c r="C130" s="35" t="s">
-        <v>539</v>
       </c>
       <c r="D130" s="36">
         <v>50</v>
@@ -15498,10 +15498,10 @@
         <v>23</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D134" s="36">
         <v>20</v>
@@ -15531,13 +15531,13 @@
       </c>
       <c r="N134" s="8"/>
       <c r="O134" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P134" s="10" t="s">
         <v>95</v>
       </c>
       <c r="Q134" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R134" s="11" t="s">
         <v>15</v>
@@ -15550,10 +15550,10 @@
         <v>24</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C135" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D135" s="36">
         <v>30</v>
@@ -15581,16 +15581,16 @@
         <v>1</v>
       </c>
       <c r="O135" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P135" s="10" t="s">
         <v>157</v>
       </c>
       <c r="Q135" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R135" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S135" s="24"/>
     </row>
@@ -15625,7 +15625,7 @@
         <v>1</v>
       </c>
       <c r="O136" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P136" s="10" t="s">
         <v>96</v>
@@ -15633,7 +15633,7 @@
       <c r="Q136" s="28"/>
       <c r="R136" s="11"/>
       <c r="S136" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="137" spans="1:19" ht="22.5" customHeight="1">
@@ -15663,16 +15663,16 @@
         <v>26</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C138" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D138" s="36">
         <v>0</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>9</v>
@@ -15684,7 +15684,7 @@
         <v>79</v>
       </c>
       <c r="I138" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
@@ -15694,13 +15694,13 @@
       </c>
       <c r="N138" s="8"/>
       <c r="O138" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P138" s="10" t="s">
         <v>38</v>
       </c>
       <c r="Q138" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R138" s="11" t="s">
         <v>25</v>
@@ -15713,19 +15713,19 @@
         <v>27</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C139" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D139" s="36">
         <v>10</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G139" s="6" t="s">
         <v>13</v>
@@ -15734,10 +15734,10 @@
         <v>79</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K139" s="7" t="s">
         <v>14</v>
@@ -15748,13 +15748,13 @@
       </c>
       <c r="N139" s="8"/>
       <c r="O139" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P139" s="10" t="s">
         <v>47</v>
       </c>
       <c r="Q139" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R139" s="11" t="s">
         <v>14</v>
@@ -15767,28 +15767,28 @@
         <v>28</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D140" s="36">
         <v>1</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
@@ -15798,16 +15798,16 @@
       </c>
       <c r="N140" s="8"/>
       <c r="O140" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P140" s="10" t="s">
         <v>38</v>
       </c>
       <c r="Q140" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R140" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S140" s="24"/>
     </row>
@@ -15817,28 +15817,28 @@
         <v>29</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D141" s="36">
         <v>2</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
@@ -15848,16 +15848,16 @@
       </c>
       <c r="N141" s="8"/>
       <c r="O141" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P141" s="10" t="s">
         <v>38</v>
       </c>
       <c r="Q141" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R141" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S141" s="24"/>
     </row>
@@ -15867,34 +15867,34 @@
         <v>30</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D142" s="36">
         <v>11</v>
       </c>
       <c r="E142" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="G142" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>375</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I142" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="J142" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="J142" s="7" t="s">
-        <v>380</v>
-      </c>
       <c r="K142" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L142" s="7"/>
       <c r="M142" s="8">
@@ -15902,16 +15902,16 @@
       </c>
       <c r="N142" s="8"/>
       <c r="O142" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P142" s="10" t="s">
         <v>47</v>
       </c>
       <c r="Q142" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R142" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S142" s="24"/>
     </row>
@@ -15942,10 +15942,10 @@
         <v>31</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C144" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D144" s="36">
         <v>20</v>
@@ -15964,7 +15964,7 @@
         <v>156</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K144" s="7" t="s">
         <v>138</v>
@@ -15975,13 +15975,13 @@
       </c>
       <c r="N144" s="8"/>
       <c r="O144" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P144" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q144" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R144" s="11" t="s">
         <v>15</v>
@@ -15994,10 +15994,10 @@
         <v>32</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D145" s="36">
         <v>30</v>
@@ -16025,16 +16025,16 @@
         <v>1</v>
       </c>
       <c r="O145" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P145" s="10" t="s">
         <v>157</v>
       </c>
       <c r="Q145" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R145" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S145" s="24"/>
     </row>
@@ -16069,7 +16069,7 @@
         <v>1</v>
       </c>
       <c r="O146" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P146" s="10" t="s">
         <v>96</v>
@@ -16077,7 +16077,7 @@
       <c r="Q146" s="28"/>
       <c r="R146" s="11"/>
       <c r="S146" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="147" spans="1:19" ht="22.5" customHeight="1">
@@ -16107,10 +16107,10 @@
         <v>34</v>
       </c>
       <c r="B148" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D148" s="36">
         <v>20</v>
@@ -16129,7 +16129,7 @@
         <v>99</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K148" s="7" t="s">
         <v>138</v>
@@ -16140,13 +16140,13 @@
       </c>
       <c r="N148" s="8"/>
       <c r="O148" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P148" s="10" t="s">
         <v>15</v>
       </c>
       <c r="Q148" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R148" s="11" t="s">
         <v>15</v>
@@ -16159,10 +16159,10 @@
         <v>35</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D149" s="36">
         <v>30</v>
@@ -16190,16 +16190,16 @@
         <v>1</v>
       </c>
       <c r="O149" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P149" s="10" t="s">
         <v>157</v>
       </c>
       <c r="Q149" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R149" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S149" s="24"/>
     </row>
@@ -16234,7 +16234,7 @@
         <v>1</v>
       </c>
       <c r="O150" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P150" s="10" t="s">
         <v>96</v>
@@ -16242,7 +16242,7 @@
       <c r="Q150" s="28"/>
       <c r="R150" s="11"/>
       <c r="S150" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="151" spans="1:19" ht="22.5" customHeight="1">
@@ -16285,10 +16285,10 @@
         <v>79</v>
       </c>
       <c r="I152" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J152" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="N152" s="8"/>
       <c r="O152" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P152" s="10" t="s">
         <v>159</v>
@@ -16305,7 +16305,7 @@
       <c r="Q152" s="28"/>
       <c r="R152" s="11"/>
       <c r="S152" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="153" spans="1:19" ht="22.5" customHeight="1">
@@ -16335,10 +16335,10 @@
         <v>38</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D154" s="36">
         <v>20</v>
@@ -16357,7 +16357,7 @@
         <v>101</v>
       </c>
       <c r="J154" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K154" s="7" t="s">
         <v>15</v>
@@ -16368,13 +16368,13 @@
       </c>
       <c r="N154" s="8"/>
       <c r="O154" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P154" s="10" t="s">
         <v>15</v>
       </c>
       <c r="Q154" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R154" s="11" t="s">
         <v>15</v>
@@ -16387,10 +16387,10 @@
         <v>39</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D155" s="36">
         <v>30</v>
@@ -16409,7 +16409,7 @@
         <v>101</v>
       </c>
       <c r="J155" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
@@ -16418,16 +16418,16 @@
       </c>
       <c r="N155" s="8"/>
       <c r="O155" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P155" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q155" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R155" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S155" s="24"/>
     </row>
@@ -16462,7 +16462,7 @@
         <v>1</v>
       </c>
       <c r="O156" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P156" s="10" t="s">
         <v>158</v>
@@ -16470,7 +16470,7 @@
       <c r="Q156" s="28"/>
       <c r="R156" s="11"/>
       <c r="S156" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="157" spans="1:19" ht="22.5" customHeight="1">
@@ -16500,10 +16500,10 @@
         <v>41</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D158" s="36">
         <v>10</v>
@@ -16522,7 +16522,7 @@
         <v>34</v>
       </c>
       <c r="J158" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
@@ -16534,13 +16534,13 @@
         <v>82</v>
       </c>
       <c r="P158" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q158" s="28" t="s">
         <v>34</v>
       </c>
       <c r="R158" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S158" s="24"/>
     </row>
@@ -16571,16 +16571,16 @@
         <v>42</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C160" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D160" s="36">
         <v>10</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>50</v>
@@ -16592,7 +16592,7 @@
         <v>79</v>
       </c>
       <c r="I160" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
@@ -16602,13 +16602,13 @@
       </c>
       <c r="N160" s="8"/>
       <c r="O160" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P160" s="10" t="s">
         <v>47</v>
       </c>
       <c r="Q160" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R160" s="11" t="s">
         <v>14</v>
@@ -16621,19 +16621,19 @@
         <v>43</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D161" s="36">
         <v>11</v>
       </c>
       <c r="E161" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F161" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="F161" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="G161" s="6" t="s">
         <v>8</v>
@@ -16642,13 +16642,13 @@
         <v>79</v>
       </c>
       <c r="I161" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J161" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K161" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L161" s="7"/>
       <c r="M161" s="8">
@@ -16656,16 +16656,16 @@
       </c>
       <c r="N161" s="8"/>
       <c r="O161" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P161" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q161" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R161" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S161" s="24"/>
     </row>
@@ -16678,7 +16678,7 @@
       <c r="C162" s="35"/>
       <c r="D162" s="36"/>
       <c r="E162" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="6" t="s">
@@ -16688,13 +16688,13 @@
         <v>79</v>
       </c>
       <c r="I162" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J162" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K162" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L162" s="7"/>
       <c r="M162" s="8"/>
@@ -16702,15 +16702,15 @@
         <v>1</v>
       </c>
       <c r="O162" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P162" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q162" s="28"/>
       <c r="R162" s="11"/>
       <c r="S162" s="24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="163" spans="1:19" ht="22.5" customHeight="1">
@@ -16719,19 +16719,19 @@
         <v>45</v>
       </c>
       <c r="B163" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C163" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D163" s="36">
         <v>12</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G163" s="6" t="s">
         <v>8</v>
@@ -16740,13 +16740,13 @@
         <v>79</v>
       </c>
       <c r="I163" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J163" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K163" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L163" s="7"/>
       <c r="M163" s="8">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="N163" s="8"/>
       <c r="O163" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="P163" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="P163" s="10" t="s">
-        <v>396</v>
-      </c>
       <c r="Q163" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R163" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="S163" s="24"/>
     </row>
@@ -16776,7 +16776,7 @@
       <c r="C164" s="35"/>
       <c r="D164" s="36"/>
       <c r="E164" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6" t="s">
@@ -16786,13 +16786,13 @@
         <v>79</v>
       </c>
       <c r="I164" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J164" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K164" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L164" s="7"/>
       <c r="M164" s="8"/>
@@ -16800,15 +16800,15 @@
         <v>1</v>
       </c>
       <c r="O164" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P164" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q164" s="28"/>
       <c r="R164" s="11"/>
       <c r="S164" s="24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="165" spans="1:19" ht="22.5" customHeight="1">
@@ -16817,16 +16817,16 @@
         <v>47</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C165" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D165" s="36">
         <v>13</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>110</v>
@@ -16838,13 +16838,13 @@
         <v>79</v>
       </c>
       <c r="I165" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J165" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K165" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L165" s="7"/>
       <c r="M165" s="8">
@@ -16852,16 +16852,16 @@
       </c>
       <c r="N165" s="8"/>
       <c r="O165" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P165" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q165" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R165" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S165" s="24"/>
     </row>
@@ -16874,7 +16874,7 @@
       <c r="C166" s="35"/>
       <c r="D166" s="36"/>
       <c r="E166" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="6" t="s">
@@ -16884,13 +16884,13 @@
         <v>79</v>
       </c>
       <c r="I166" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K166" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L166" s="7"/>
       <c r="M166" s="8"/>
@@ -16898,15 +16898,15 @@
         <v>1</v>
       </c>
       <c r="O166" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P166" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q166" s="28"/>
       <c r="R166" s="11"/>
       <c r="S166" s="24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="167" spans="1:19" ht="22.5" customHeight="1">
@@ -16935,10 +16935,10 @@
         <v>1</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C168" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D168" s="36">
         <v>0</v>
@@ -16979,10 +16979,10 @@
         <v>2</v>
       </c>
       <c r="B169" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C169" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D169" s="36">
         <v>0</v>
@@ -17046,10 +17046,10 @@
         <v>3</v>
       </c>
       <c r="B171" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C171" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D171" s="36">
         <v>10</v>
@@ -17096,10 +17096,10 @@
         <v>4</v>
       </c>
       <c r="B172" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C172" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D172" s="36">
         <v>20</v>
@@ -17188,10 +17188,10 @@
         <v>6</v>
       </c>
       <c r="B174" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C174" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D174" s="36">
         <v>50</v>
@@ -17345,7 +17345,7 @@
         <v>61</v>
       </c>
       <c r="K177" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L177" s="7"/>
       <c r="M177" s="8">
@@ -17356,7 +17356,7 @@
         <v>56</v>
       </c>
       <c r="P177" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q177" s="23"/>
       <c r="R177" s="11"/>
@@ -17391,10 +17391,10 @@
         <v>10</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C179" s="35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D179" s="36">
         <v>0</v>
@@ -17441,10 +17441,10 @@
         <v>11</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C180" s="35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D180" s="36">
         <v>10</v>
@@ -17495,10 +17495,10 @@
         <v>12</v>
       </c>
       <c r="B181" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C181" s="35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D181" s="36">
         <v>20</v>
@@ -17587,10 +17587,10 @@
         <v>14</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C183" s="35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D183" s="36">
         <v>50</v>
@@ -17744,7 +17744,7 @@
         <v>42</v>
       </c>
       <c r="K186" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L186" s="7"/>
       <c r="M186" s="8">
@@ -17755,7 +17755,7 @@
         <v>73</v>
       </c>
       <c r="P186" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q186" s="23"/>
       <c r="R186" s="11"/>
@@ -17790,10 +17790,10 @@
         <v>18</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C188" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D188" s="36">
         <v>0</v>
@@ -17838,10 +17838,10 @@
         <v>19</v>
       </c>
       <c r="B189" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C189" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D189" s="36">
         <v>10</v>
@@ -17851,7 +17851,7 @@
       </c>
       <c r="F189" s="6"/>
       <c r="G189" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H189" s="7" t="s">
         <v>69</v>
@@ -17860,7 +17860,7 @@
         <v>32</v>
       </c>
       <c r="J189" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
@@ -17872,13 +17872,13 @@
         <v>58</v>
       </c>
       <c r="P189" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q189" s="23" t="s">
         <v>32</v>
       </c>
       <c r="R189" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S189" s="24"/>
     </row>
@@ -17888,10 +17888,10 @@
         <v>20</v>
       </c>
       <c r="B190" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C190" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D190" s="36">
         <v>20</v>
@@ -17901,7 +17901,7 @@
       </c>
       <c r="F190" s="6"/>
       <c r="G190" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H190" s="7" t="s">
         <v>69</v>
@@ -17910,7 +17910,7 @@
         <v>32</v>
       </c>
       <c r="J190" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
@@ -17922,13 +17922,13 @@
         <v>58</v>
       </c>
       <c r="P190" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q190" s="23" t="s">
         <v>32</v>
       </c>
       <c r="R190" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S190" s="24"/>
     </row>
@@ -17945,7 +17945,7 @@
       </c>
       <c r="F191" s="6"/>
       <c r="G191" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H191" s="7" t="s">
         <v>69</v>
@@ -17954,7 +17954,7 @@
         <v>32</v>
       </c>
       <c r="J191" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
@@ -17966,12 +17966,12 @@
         <v>58</v>
       </c>
       <c r="P191" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q191" s="23"/>
       <c r="R191" s="11"/>
       <c r="S191" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="192" spans="1:19" ht="22.5" customHeight="1">
@@ -18001,19 +18001,19 @@
         <v>22</v>
       </c>
       <c r="B193" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C193" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D193" s="36">
         <v>0</v>
       </c>
       <c r="E193" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F193" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="F193" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="G193" s="6" t="s">
         <v>9</v>
@@ -18051,19 +18051,19 @@
         <v>23</v>
       </c>
       <c r="B194" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C194" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D194" s="36">
         <v>20</v>
       </c>
       <c r="E194" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F194" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="F194" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="G194" s="6" t="s">
         <v>23</v>
@@ -18106,10 +18106,10 @@
       <c r="C195" s="35"/>
       <c r="D195" s="36"/>
       <c r="E195" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F195" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="F195" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="G195" s="6" t="s">
         <v>40</v>
@@ -18147,19 +18147,19 @@
         <v>25</v>
       </c>
       <c r="B196" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C196" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D196" s="36">
         <v>50</v>
       </c>
       <c r="E196" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F196" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="F196" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="G196" s="6" t="s">
         <v>8</v>
@@ -18204,10 +18204,10 @@
       <c r="C197" s="35"/>
       <c r="D197" s="36"/>
       <c r="E197" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F197" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="F197" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="G197" s="6" t="s">
         <v>39</v>
@@ -18248,10 +18248,10 @@
       <c r="C198" s="35"/>
       <c r="D198" s="36"/>
       <c r="E198" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F198" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="F198" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="G198" s="6" t="s">
         <v>16</v>
@@ -18312,19 +18312,19 @@
         <v>28</v>
       </c>
       <c r="B200" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C200" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D200" s="36">
         <v>0</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G200" s="6" t="s">
         <v>9</v>
@@ -18362,19 +18362,19 @@
         <v>29</v>
       </c>
       <c r="B201" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C201" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D201" s="36">
         <v>20</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G201" s="6" t="s">
         <v>23</v>
@@ -18417,10 +18417,10 @@
       <c r="C202" s="35"/>
       <c r="D202" s="36"/>
       <c r="E202" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G202" s="6" t="s">
         <v>40</v>
@@ -18458,19 +18458,19 @@
         <v>31</v>
       </c>
       <c r="B203" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C203" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D203" s="36">
         <v>50</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G203" s="6" t="s">
         <v>8</v>
@@ -18515,10 +18515,10 @@
       <c r="C204" s="35"/>
       <c r="D204" s="36"/>
       <c r="E204" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G204" s="6" t="s">
         <v>39</v>
@@ -18559,10 +18559,10 @@
       <c r="C205" s="35"/>
       <c r="D205" s="36"/>
       <c r="E205" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G205" s="6" t="s">
         <v>16</v>
@@ -18626,10 +18626,10 @@
       <c r="C207" s="35"/>
       <c r="D207" s="36"/>
       <c r="E207" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G207" s="6" t="s">
         <v>9</v>
@@ -18688,19 +18688,19 @@
         <v>35</v>
       </c>
       <c r="B209" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C209" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D209" s="36">
         <v>0</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G209" s="6" t="s">
         <v>9</v>
@@ -18709,7 +18709,7 @@
         <v>69</v>
       </c>
       <c r="I209" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J209" s="7"/>
       <c r="K209" s="7"/>
@@ -18719,13 +18719,13 @@
       </c>
       <c r="N209" s="8"/>
       <c r="O209" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P209" s="10" t="s">
         <v>38</v>
       </c>
       <c r="Q209" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R209" s="11" t="s">
         <v>25</v>
@@ -18738,19 +18738,19 @@
         <v>36</v>
       </c>
       <c r="B210" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C210" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D210" s="36">
         <v>20</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G210" s="6" t="s">
         <v>23</v>
@@ -18769,13 +18769,13 @@
       </c>
       <c r="N210" s="8"/>
       <c r="O210" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P210" s="10" t="s">
         <v>15</v>
       </c>
       <c r="Q210" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R210" s="11" t="s">
         <v>15</v>
@@ -18791,10 +18791,10 @@
       <c r="C211" s="35"/>
       <c r="D211" s="36"/>
       <c r="E211" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G211" s="6" t="s">
         <v>40</v>
@@ -18813,7 +18813,7 @@
         <v>1</v>
       </c>
       <c r="O211" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P211" s="10" t="s">
         <v>41</v>
@@ -18830,19 +18830,19 @@
         <v>38</v>
       </c>
       <c r="B212" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C212" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D212" s="36">
         <v>50</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G212" s="6" t="s">
         <v>8</v>
@@ -18863,13 +18863,13 @@
       </c>
       <c r="N212" s="8"/>
       <c r="O212" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P212" s="10" t="s">
         <v>7</v>
       </c>
       <c r="Q212" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R212" s="11" t="s">
         <v>7</v>
@@ -18885,10 +18885,10 @@
       <c r="C213" s="35"/>
       <c r="D213" s="36"/>
       <c r="E213" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G213" s="6" t="s">
         <v>39</v>
@@ -18907,7 +18907,7 @@
         <v>1</v>
       </c>
       <c r="O213" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P213" s="10" t="s">
         <v>17</v>
@@ -18927,10 +18927,10 @@
       <c r="C214" s="35"/>
       <c r="D214" s="36"/>
       <c r="E214" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G214" s="6" t="s">
         <v>16</v>
@@ -18951,7 +18951,7 @@
       </c>
       <c r="N214" s="8"/>
       <c r="O214" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P214" s="10" t="s">
         <v>10</v>
@@ -18989,19 +18989,19 @@
         <v>41</v>
       </c>
       <c r="B216" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C216" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D216" s="36">
         <v>0</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G216" s="6" t="s">
         <v>9</v>
@@ -19010,7 +19010,7 @@
         <v>69</v>
       </c>
       <c r="I216" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J216" s="7"/>
       <c r="K216" s="7"/>
@@ -19020,13 +19020,13 @@
       </c>
       <c r="N216" s="8"/>
       <c r="O216" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P216" s="10" t="s">
         <v>38</v>
       </c>
       <c r="Q216" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R216" s="11" t="s">
         <v>25</v>
@@ -19039,19 +19039,19 @@
         <v>42</v>
       </c>
       <c r="B217" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C217" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D217" s="36">
         <v>20</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G217" s="6" t="s">
         <v>23</v>
@@ -19070,13 +19070,13 @@
       </c>
       <c r="N217" s="8"/>
       <c r="O217" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P217" s="10" t="s">
         <v>15</v>
       </c>
       <c r="Q217" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R217" s="11" t="s">
         <v>15</v>
@@ -19092,10 +19092,10 @@
       <c r="C218" s="35"/>
       <c r="D218" s="36"/>
       <c r="E218" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>40</v>
@@ -19114,7 +19114,7 @@
         <v>1</v>
       </c>
       <c r="O218" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P218" s="10" t="s">
         <v>41</v>
@@ -19131,19 +19131,19 @@
         <v>44</v>
       </c>
       <c r="B219" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C219" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D219" s="36">
         <v>50</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G219" s="6" t="s">
         <v>8</v>
@@ -19164,13 +19164,13 @@
       </c>
       <c r="N219" s="8"/>
       <c r="O219" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P219" s="10" t="s">
         <v>7</v>
       </c>
       <c r="Q219" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R219" s="11" t="s">
         <v>7</v>
@@ -19186,10 +19186,10 @@
       <c r="C220" s="35"/>
       <c r="D220" s="36"/>
       <c r="E220" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G220" s="6" t="s">
         <v>39</v>
@@ -19208,7 +19208,7 @@
         <v>1</v>
       </c>
       <c r="O220" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P220" s="10" t="s">
         <v>17</v>
@@ -19228,10 +19228,10 @@
       <c r="C221" s="35"/>
       <c r="D221" s="36"/>
       <c r="E221" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G221" s="6" t="s">
         <v>16</v>
@@ -19252,7 +19252,7 @@
       </c>
       <c r="N221" s="8"/>
       <c r="O221" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P221" s="10" t="s">
         <v>10</v>
@@ -19290,19 +19290,19 @@
         <v>47</v>
       </c>
       <c r="B223" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C223" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D223" s="36">
         <v>0</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G223" s="6" t="s">
         <v>9</v>
@@ -19311,7 +19311,7 @@
         <v>69</v>
       </c>
       <c r="I223" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J223" s="7"/>
       <c r="K223" s="7"/>
@@ -19321,13 +19321,13 @@
       </c>
       <c r="N223" s="8"/>
       <c r="O223" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P223" s="10" t="s">
         <v>38</v>
       </c>
       <c r="Q223" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R223" s="11" t="s">
         <v>25</v>
@@ -19340,19 +19340,19 @@
         <v>48</v>
       </c>
       <c r="B224" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C224" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D224" s="36">
         <v>20</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G224" s="6" t="s">
         <v>23</v>
@@ -19377,7 +19377,7 @@
         <v>15</v>
       </c>
       <c r="Q224" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R224" s="11" t="s">
         <v>15</v>
@@ -19393,10 +19393,10 @@
       <c r="C225" s="35"/>
       <c r="D225" s="36"/>
       <c r="E225" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G225" s="6" t="s">
         <v>40</v>
@@ -19432,19 +19432,19 @@
         <v>50</v>
       </c>
       <c r="B226" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C226" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D226" s="36">
         <v>50</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G226" s="6" t="s">
         <v>8</v>
@@ -19471,7 +19471,7 @@
         <v>7</v>
       </c>
       <c r="Q226" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R226" s="11" t="s">
         <v>7</v>
@@ -19487,10 +19487,10 @@
       <c r="C227" s="35"/>
       <c r="D227" s="36"/>
       <c r="E227" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G227" s="6" t="s">
         <v>39</v>
@@ -19529,10 +19529,10 @@
       <c r="C228" s="35"/>
       <c r="D228" s="36"/>
       <c r="E228" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G228" s="6" t="s">
         <v>16</v>
@@ -19594,10 +19594,10 @@
       <c r="C230" s="35"/>
       <c r="D230" s="36"/>
       <c r="E230" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G230" s="6" t="s">
         <v>9</v>
@@ -19606,7 +19606,7 @@
         <v>69</v>
       </c>
       <c r="I230" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J230" s="7"/>
       <c r="K230" s="7"/>
@@ -19616,13 +19616,13 @@
       </c>
       <c r="N230" s="8"/>
       <c r="O230" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P230" s="10" t="s">
         <v>38</v>
       </c>
       <c r="Q230" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R230" s="11" t="s">
         <v>25</v>
@@ -19656,19 +19656,19 @@
         <v>54</v>
       </c>
       <c r="B232" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C232" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D232" s="36">
         <v>0</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G232" s="6" t="s">
         <v>9</v>
@@ -19677,10 +19677,10 @@
         <v>69</v>
       </c>
       <c r="I232" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J232" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K232" s="7"/>
       <c r="L232" s="7"/>
@@ -19689,16 +19689,16 @@
       </c>
       <c r="N232" s="8"/>
       <c r="O232" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="P232" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="P232" s="10" t="s">
-        <v>440</v>
-      </c>
       <c r="Q232" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R232" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="S232" s="24"/>
     </row>
@@ -19708,19 +19708,19 @@
         <v>55</v>
       </c>
       <c r="B233" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C233" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D233" s="36">
         <v>20</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G233" s="6" t="s">
         <v>23</v>
@@ -19729,10 +19729,10 @@
         <v>69</v>
       </c>
       <c r="I233" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J233" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K233" s="7" t="s">
         <v>15</v>
@@ -19743,16 +19743,16 @@
       </c>
       <c r="N233" s="8"/>
       <c r="O233" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P233" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q233" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R233" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S233" s="24"/>
     </row>
@@ -19765,10 +19765,10 @@
       <c r="C234" s="35"/>
       <c r="D234" s="36"/>
       <c r="E234" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G234" s="6" t="s">
         <v>40</v>
@@ -19777,10 +19777,10 @@
         <v>69</v>
       </c>
       <c r="I234" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J234" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K234" s="7" t="s">
         <v>41</v>
@@ -19791,15 +19791,15 @@
         <v>1</v>
       </c>
       <c r="O234" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P234" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q234" s="23"/>
       <c r="R234" s="11"/>
       <c r="S234" s="24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="235" spans="1:19" ht="22.5" customHeight="1">
@@ -19808,19 +19808,19 @@
         <v>57</v>
       </c>
       <c r="B235" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C235" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D235" s="36">
         <v>50</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G235" s="6" t="s">
         <v>8</v>
@@ -19829,10 +19829,10 @@
         <v>69</v>
       </c>
       <c r="I235" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J235" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K235" s="7" t="s">
         <v>78</v>
@@ -19845,16 +19845,16 @@
       </c>
       <c r="N235" s="8"/>
       <c r="O235" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P235" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q235" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R235" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="S235" s="24"/>
     </row>
@@ -19867,10 +19867,10 @@
       <c r="C236" s="35"/>
       <c r="D236" s="36"/>
       <c r="E236" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G236" s="6" t="s">
         <v>39</v>
@@ -19879,10 +19879,10 @@
         <v>69</v>
       </c>
       <c r="I236" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J236" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K236" s="7" t="s">
         <v>17</v>
@@ -19893,15 +19893,15 @@
         <v>1</v>
       </c>
       <c r="O236" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P236" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q236" s="23"/>
       <c r="R236" s="11"/>
       <c r="S236" s="24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="237" spans="1:19" ht="22.5" customHeight="1">
@@ -19913,10 +19913,10 @@
       <c r="C237" s="35"/>
       <c r="D237" s="36"/>
       <c r="E237" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G237" s="6" t="s">
         <v>16</v>
@@ -19925,10 +19925,10 @@
         <v>69</v>
       </c>
       <c r="I237" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J237" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K237" s="7" t="s">
         <v>78</v>
@@ -19941,15 +19941,15 @@
       </c>
       <c r="N237" s="8"/>
       <c r="O237" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P237" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q237" s="23"/>
       <c r="R237" s="11"/>
       <c r="S237" s="24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="238" spans="1:19" ht="22.5" customHeight="1">
@@ -19979,19 +19979,19 @@
         <v>60</v>
       </c>
       <c r="B239" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C239" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D239" s="36">
         <v>0</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G239" s="6" t="s">
         <v>9</v>
@@ -20000,10 +20000,10 @@
         <v>69</v>
       </c>
       <c r="I239" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="J239" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="J239" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="K239" s="7"/>
       <c r="L239" s="7"/>
@@ -20012,16 +20012,16 @@
       </c>
       <c r="N239" s="8"/>
       <c r="O239" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P239" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q239" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R239" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S239" s="24"/>
     </row>
@@ -20031,19 +20031,19 @@
         <v>61</v>
       </c>
       <c r="B240" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C240" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D240" s="36">
         <v>20</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G240" s="6" t="s">
         <v>23</v>
@@ -20052,10 +20052,10 @@
         <v>69</v>
       </c>
       <c r="I240" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="J240" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="J240" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="K240" s="7" t="s">
         <v>15</v>
@@ -20066,16 +20066,16 @@
       </c>
       <c r="N240" s="8"/>
       <c r="O240" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P240" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q240" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R240" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S240" s="24"/>
     </row>
@@ -20088,10 +20088,10 @@
       <c r="C241" s="35"/>
       <c r="D241" s="36"/>
       <c r="E241" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G241" s="6" t="s">
         <v>40</v>
@@ -20100,10 +20100,10 @@
         <v>69</v>
       </c>
       <c r="I241" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="J241" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="J241" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="K241" s="7" t="s">
         <v>41</v>
@@ -20114,15 +20114,15 @@
         <v>1</v>
       </c>
       <c r="O241" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P241" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q241" s="23"/>
       <c r="R241" s="11"/>
       <c r="S241" s="24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="242" spans="1:19" ht="22.5" customHeight="1">
@@ -20131,19 +20131,19 @@
         <v>63</v>
       </c>
       <c r="B242" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C242" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D242" s="36">
         <v>50</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G242" s="6" t="s">
         <v>8</v>
@@ -20152,10 +20152,10 @@
         <v>69</v>
       </c>
       <c r="I242" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="J242" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="J242" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="K242" s="7" t="s">
         <v>78</v>
@@ -20168,16 +20168,16 @@
       </c>
       <c r="N242" s="8"/>
       <c r="O242" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P242" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Q242" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R242" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="S242" s="24"/>
     </row>
@@ -20190,10 +20190,10 @@
       <c r="C243" s="35"/>
       <c r="D243" s="36"/>
       <c r="E243" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G243" s="6" t="s">
         <v>39</v>
@@ -20202,10 +20202,10 @@
         <v>69</v>
       </c>
       <c r="I243" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="J243" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="J243" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="K243" s="7" t="s">
         <v>17</v>
@@ -20216,15 +20216,15 @@
         <v>1</v>
       </c>
       <c r="O243" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P243" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q243" s="23"/>
       <c r="R243" s="11"/>
       <c r="S243" s="24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="244" spans="1:19" ht="22.5" customHeight="1">
@@ -20236,10 +20236,10 @@
       <c r="C244" s="35"/>
       <c r="D244" s="36"/>
       <c r="E244" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G244" s="6" t="s">
         <v>16</v>
@@ -20248,10 +20248,10 @@
         <v>69</v>
       </c>
       <c r="I244" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="J244" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="J244" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="K244" s="7" t="s">
         <v>78</v>
@@ -20264,15 +20264,15 @@
       </c>
       <c r="N244" s="8"/>
       <c r="O244" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P244" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q244" s="23"/>
       <c r="R244" s="11"/>
       <c r="S244" s="24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="245" spans="1:19" ht="22.5" customHeight="1">
@@ -20302,19 +20302,19 @@
         <v>66</v>
       </c>
       <c r="B246" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C246" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D246" s="36">
         <v>0</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G246" s="6" t="s">
         <v>9</v>
@@ -20323,10 +20323,10 @@
         <v>69</v>
       </c>
       <c r="I246" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J246" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K246" s="7"/>
       <c r="L246" s="7"/>
@@ -20335,16 +20335,16 @@
       </c>
       <c r="N246" s="8"/>
       <c r="O246" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P246" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q246" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R246" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="S246" s="24"/>
     </row>
@@ -20354,19 +20354,19 @@
         <v>67</v>
       </c>
       <c r="B247" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C247" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D247" s="36">
         <v>20</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G247" s="6" t="s">
         <v>23</v>
@@ -20375,10 +20375,10 @@
         <v>69</v>
       </c>
       <c r="I247" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J247" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K247" s="7" t="s">
         <v>15</v>
@@ -20389,16 +20389,16 @@
       </c>
       <c r="N247" s="8"/>
       <c r="O247" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P247" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q247" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R247" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="S247" s="24"/>
     </row>
@@ -20411,10 +20411,10 @@
       <c r="C248" s="35"/>
       <c r="D248" s="36"/>
       <c r="E248" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G248" s="6" t="s">
         <v>40</v>
@@ -20423,10 +20423,10 @@
         <v>69</v>
       </c>
       <c r="I248" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J248" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K248" s="7" t="s">
         <v>41</v>
@@ -20437,15 +20437,15 @@
         <v>1</v>
       </c>
       <c r="O248" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P248" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q248" s="23"/>
       <c r="R248" s="11"/>
       <c r="S248" s="24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="249" spans="1:19" ht="22.5" customHeight="1">
@@ -20454,19 +20454,19 @@
         <v>69</v>
       </c>
       <c r="B249" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C249" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D249" s="36">
         <v>50</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G249" s="6" t="s">
         <v>8</v>
@@ -20475,10 +20475,10 @@
         <v>69</v>
       </c>
       <c r="I249" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J249" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K249" s="7" t="s">
         <v>78</v>
@@ -20491,16 +20491,16 @@
       </c>
       <c r="N249" s="8"/>
       <c r="O249" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P249" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Q249" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R249" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S249" s="24"/>
     </row>
@@ -20513,10 +20513,10 @@
       <c r="C250" s="35"/>
       <c r="D250" s="36"/>
       <c r="E250" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G250" s="6" t="s">
         <v>39</v>
@@ -20525,10 +20525,10 @@
         <v>69</v>
       </c>
       <c r="I250" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J250" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K250" s="7" t="s">
         <v>17</v>
@@ -20539,15 +20539,15 @@
         <v>1</v>
       </c>
       <c r="O250" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P250" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q250" s="23"/>
       <c r="R250" s="11"/>
       <c r="S250" s="24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="251" spans="1:19" ht="22.5" customHeight="1">
@@ -20559,10 +20559,10 @@
       <c r="C251" s="35"/>
       <c r="D251" s="36"/>
       <c r="E251" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G251" s="6" t="s">
         <v>16</v>
@@ -20571,10 +20571,10 @@
         <v>69</v>
       </c>
       <c r="I251" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J251" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K251" s="7" t="s">
         <v>78</v>
@@ -20587,15 +20587,15 @@
       </c>
       <c r="N251" s="8"/>
       <c r="O251" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P251" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Q251" s="23"/>
       <c r="R251" s="11"/>
       <c r="S251" s="24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="252" spans="1:19" ht="22.5" customHeight="1">
@@ -20624,28 +20624,28 @@
         <v>1</v>
       </c>
       <c r="B253" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C253" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D253" s="36">
         <v>1</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F253" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="G253" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="G253" s="6" t="s">
-        <v>514</v>
-      </c>
       <c r="H253" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="I253" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="I253" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="J253" s="7"/>
       <c r="K253" s="7"/>
@@ -20655,10 +20655,10 @@
         <v>1</v>
       </c>
       <c r="O253" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P253" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q253" s="23"/>
       <c r="R253" s="11"/>
@@ -20670,28 +20670,28 @@
         <v>2</v>
       </c>
       <c r="B254" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C254" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D254" s="36">
         <v>2</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I254" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J254" s="7"/>
       <c r="K254" s="7"/>
@@ -20701,10 +20701,10 @@
         <v>1</v>
       </c>
       <c r="O254" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P254" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q254" s="23"/>
       <c r="R254" s="11"/>
@@ -20716,26 +20716,26 @@
         <v>3</v>
       </c>
       <c r="B255" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C255" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D255" s="36">
         <v>3</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G255" s="6"/>
       <c r="H255" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I255" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J255" s="7"/>
       <c r="K255" s="7"/>
@@ -20745,10 +20745,10 @@
         <v>1</v>
       </c>
       <c r="O255" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P255" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q255" s="23"/>
       <c r="R255" s="11"/>
@@ -20760,26 +20760,26 @@
         <v>4</v>
       </c>
       <c r="B256" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C256" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D256" s="36">
         <v>4</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G256" s="6"/>
       <c r="H256" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I256" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J256" s="7"/>
       <c r="K256" s="7"/>
@@ -20789,10 +20789,10 @@
         <v>1</v>
       </c>
       <c r="O256" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P256" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q256" s="23"/>
       <c r="R256" s="11"/>
@@ -20804,26 +20804,26 @@
         <v>5</v>
       </c>
       <c r="B257" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C257" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D257" s="36">
         <v>5</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G257" s="6"/>
       <c r="H257" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I257" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J257" s="7"/>
       <c r="K257" s="7"/>
@@ -20833,10 +20833,10 @@
         <v>1</v>
       </c>
       <c r="O257" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P257" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q257" s="23"/>
       <c r="R257" s="11"/>
@@ -20848,26 +20848,26 @@
         <v>6</v>
       </c>
       <c r="B258" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C258" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D258" s="36">
         <v>6</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G258" s="6"/>
       <c r="H258" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I258" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J258" s="7"/>
       <c r="K258" s="7"/>
@@ -20877,10 +20877,10 @@
         <v>1</v>
       </c>
       <c r="O258" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P258" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q258" s="23"/>
       <c r="R258" s="11"/>
@@ -20892,26 +20892,26 @@
         <v>7</v>
       </c>
       <c r="B259" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C259" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D259" s="36">
         <v>7</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G259" s="6"/>
       <c r="H259" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I259" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J259" s="7"/>
       <c r="K259" s="7"/>
@@ -20921,10 +20921,10 @@
         <v>1</v>
       </c>
       <c r="O259" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P259" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q259" s="23"/>
       <c r="R259" s="11"/>
@@ -20957,28 +20957,28 @@
         <v>8</v>
       </c>
       <c r="B261" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C261" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D261" s="36">
         <v>8</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I261" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J261" s="7"/>
       <c r="K261" s="7"/>
@@ -20988,10 +20988,10 @@
         <v>1</v>
       </c>
       <c r="O261" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P261" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q261" s="23"/>
       <c r="R261" s="11"/>
@@ -21003,28 +21003,28 @@
         <v>9</v>
       </c>
       <c r="B262" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C262" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D262" s="36">
         <v>9</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I262" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J262" s="7"/>
       <c r="K262" s="7"/>
@@ -21034,10 +21034,10 @@
         <v>1</v>
       </c>
       <c r="O262" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P262" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q262" s="23"/>
       <c r="R262" s="11"/>
@@ -21049,28 +21049,28 @@
         <v>10</v>
       </c>
       <c r="B263" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C263" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D263" s="36">
         <v>10</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I263" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J263" s="7"/>
       <c r="K263" s="7"/>
@@ -21080,10 +21080,10 @@
         <v>1</v>
       </c>
       <c r="O263" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P263" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Q263" s="23"/>
       <c r="R263" s="11"/>
@@ -21095,28 +21095,28 @@
         <v>11</v>
       </c>
       <c r="B264" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C264" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D264" s="36">
         <v>11</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H264" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I264" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J264" s="7"/>
       <c r="K264" s="7"/>
@@ -21126,10 +21126,10 @@
         <v>1</v>
       </c>
       <c r="O264" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P264" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q264" s="23"/>
       <c r="R264" s="11"/>
@@ -21141,28 +21141,28 @@
         <v>12</v>
       </c>
       <c r="B265" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C265" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D265" s="36">
         <v>12</v>
       </c>
       <c r="E265" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="F265" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G265" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="F265" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="G265" s="6" t="s">
-        <v>501</v>
-      </c>
       <c r="H265" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I265" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J265" s="7"/>
       <c r="K265" s="7"/>
@@ -21172,10 +21172,10 @@
         <v>1</v>
       </c>
       <c r="O265" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P265" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q265" s="23"/>
       <c r="R265" s="11"/>
@@ -21208,26 +21208,26 @@
         <v>13</v>
       </c>
       <c r="B267" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C267" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D267" s="36">
         <v>13</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G267" s="6"/>
       <c r="H267" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I267" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J267" s="7"/>
       <c r="K267" s="7"/>
@@ -21237,10 +21237,10 @@
         <v>1</v>
       </c>
       <c r="O267" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P267" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q267" s="23"/>
       <c r="R267" s="11"/>
@@ -21252,26 +21252,26 @@
         <v>14</v>
       </c>
       <c r="B268" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C268" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D268" s="36">
         <v>14</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G268" s="6"/>
       <c r="H268" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I268" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J268" s="7"/>
       <c r="K268" s="7"/>
@@ -21281,10 +21281,10 @@
         <v>1</v>
       </c>
       <c r="O268" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P268" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q268" s="23"/>
       <c r="R268" s="11"/>

--- a/root/datas/routes.php.xlsx
+++ b/root/datas/routes.php.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="560">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2683,6 +2683,30 @@
   </si>
   <si>
     <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin\status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9445,7 +9469,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9938,10 +9962,10 @@
   <dimension ref="A1:S269"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H246" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
+      <selection pane="bottomRight" activeCell="L256" sqref="L256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -11656,15 +11680,9 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B43" s="35" t="s">
-        <v>522</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="D43" s="36">
-        <v>80</v>
-      </c>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="6" t="s">
         <v>174</v>
       </c>
@@ -11886,7 +11904,7 @@
         <v>529</v>
       </c>
       <c r="D48" s="36">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>209</v>
@@ -11938,7 +11956,7 @@
         <v>529</v>
       </c>
       <c r="D49" s="36">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>209</v>
@@ -17052,7 +17070,7 @@
         <v>543</v>
       </c>
       <c r="D171" s="36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>60</v>
@@ -17844,7 +17862,7 @@
         <v>545</v>
       </c>
       <c r="D189" s="36">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>36</v>
@@ -17894,7 +17912,7 @@
         <v>545</v>
       </c>
       <c r="D190" s="36">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>36</v>
@@ -18622,9 +18640,15 @@
         <f>A205+1</f>
         <v>34</v>
       </c>
-      <c r="B207" s="35"/>
-      <c r="C207" s="35"/>
-      <c r="D207" s="36"/>
+      <c r="B207" s="35" t="s">
+        <v>554</v>
+      </c>
+      <c r="C207" s="35" t="s">
+        <v>559</v>
+      </c>
+      <c r="D207" s="36">
+        <v>0</v>
+      </c>
       <c r="E207" s="6" t="s">
         <v>412</v>
       </c>
@@ -18638,7 +18662,7 @@
         <v>69</v>
       </c>
       <c r="I207" s="7" t="s">
-        <v>76</v>
+        <v>556</v>
       </c>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
@@ -18648,13 +18672,13 @@
       </c>
       <c r="N207" s="8"/>
       <c r="O207" s="9" t="s">
-        <v>81</v>
+        <v>557</v>
       </c>
       <c r="P207" s="10" t="s">
         <v>38</v>
       </c>
       <c r="Q207" s="23" t="s">
-        <v>75</v>
+        <v>558</v>
       </c>
       <c r="R207" s="11" t="s">
         <v>25</v>
@@ -19590,9 +19614,15 @@
         <f>A228+1</f>
         <v>53</v>
       </c>
-      <c r="B230" s="35"/>
-      <c r="C230" s="35"/>
-      <c r="D230" s="36"/>
+      <c r="B230" s="35" t="s">
+        <v>554</v>
+      </c>
+      <c r="C230" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="D230" s="36">
+        <v>0</v>
+      </c>
       <c r="E230" s="6" t="s">
         <v>412</v>
       </c>
@@ -19985,7 +20015,7 @@
         <v>550</v>
       </c>
       <c r="D239" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E239" s="6" t="s">
         <v>412</v>
@@ -20037,7 +20067,7 @@
         <v>550</v>
       </c>
       <c r="D240" s="36">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E240" s="6" t="s">
         <v>412</v>
@@ -20137,7 +20167,7 @@
         <v>550</v>
       </c>
       <c r="D242" s="36">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E242" s="6" t="s">
         <v>412</v>
@@ -20308,7 +20338,7 @@
         <v>550</v>
       </c>
       <c r="D246" s="36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E246" s="6" t="s">
         <v>412</v>
@@ -20360,7 +20390,7 @@
         <v>550</v>
       </c>
       <c r="D247" s="36">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E247" s="6" t="s">
         <v>412</v>
@@ -20460,7 +20490,7 @@
         <v>550</v>
       </c>
       <c r="D249" s="36">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E249" s="6" t="s">
         <v>412</v>
